--- a/biology/Botanique/Annona_paludosa/Annona_paludosa.xlsx
+++ b/biology/Botanique/Annona_paludosa/Annona_paludosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annona paludosa est une espèce de petit arbre appartenant à la famille des Annonaceae, connue en Guyane sous les noms de Corossol sauvage[2], Guimanmin (créole), Kasim (Palikur), Araticu-do-brejo (Portugais)[3] ou Envira-biribá au Pará (Brésil)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annona paludosa est une espèce de petit arbre appartenant à la famille des Annonaceae, connue en Guyane sous les noms de Corossol sauvage, Guimanmin (créole), Kasim (Palikur), Araticu-do-brejo (Portugais) ou Envira-biribá au Pará (Brésil).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annona paludosa est un petit arbre haut de 1,50 à 5 m[3], à écorce lisse et roussâtre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annona paludosa est un petit arbre haut de 1,50 à 5 m, à écorce lisse et roussâtre.
 Son bois est blanc et aromatique.
 Les jeunes rameaux sont velus roussâtres, tomenteux-ferrugineux.
 Les feuilles sont de forme ovales acuminées, oblongues ou elliptiques aiguës, à base arrondie ou parfois subaiguë, chartacées, pubescentes sur les 2 faces, devenant plus ou moins glabres au-dessus, tomenteuses-ferrugineuses roussâtres en dessous, mesurant 12-22 x 5-8 cm, pour un pétiole long de 5-10 mm.
@@ -524,8 +538,8 @@
 La corolle tomenteuse porte 6 pétales : les 3 externes sont charnus, coriaces, velus, ovales, aigus, mesurant 20-23 x 18-20 mm), et ceux internes sont larges de 6 mm.
 Les carpelles sont soyeux-roussâtres.
 Le fruit charnu, de forme ovoïde, mesure 3-5 x (2)3-4 cm (jusqu'à 10 cm de diamètre), couvert de très nombreuses petites aréoles prolongées en petits tubercules 
-[2],[5],[6].
-Le pollen d’Annona paludosa est émis sous forme de tétrades permanentes[7].
+.
+Le pollen d’Annona paludosa est émis sous forme de tétrades permanentes.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annona paludosa est présent en Guyane et au Brésil (Amapá, Pará)[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annona paludosa est présent en Guyane et au Brésil (Amapá, Pará)
 </t>
         </is>
       </c>
@@ -585,13 +601,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Annona paludosa dans les savanes, les lisière forestière et les forêts secondaires de la plaine littorale de Guyane[3] et des forêts secondaires de l'Est du Brésil[8].
-Il fleurit en septembre-décembre et fructifie jusqu'en avril[2].
-La structure du bois d’Annona paludosa a été décrite[9],[10].
-La littière de feuilles d’Annona paludosa se décompose particulièrement bien dans le recrû forestier[11].
-Annona paludosa présente des périodes de fructification nettement intermittentes sur plusieurs mois et ses graines sont disséminées par les animaux[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Annona paludosa dans les savanes, les lisière forestière et les forêts secondaires de la plaine littorale de Guyane et des forêts secondaires de l'Est du Brésil.
+Il fleurit en septembre-décembre et fructifie jusqu'en avril.
+La structure du bois d’Annona paludosa a été décrite,.
+La littière de feuilles d’Annona paludosa se décompose particulièrement bien dans le recrû forestier.
+Annona paludosa présente des périodes de fructification nettement intermittentes sur plusieurs mois et ses graines sont disséminées par les animaux.
 </t>
         </is>
       </c>
@@ -620,13 +638,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits jaunes juteux sont comestibles[4],[13], mais la pulpe très ferme, serait plutôt insipide[6].
-Son bois léger est souvent utilisé comme manche d'outils[4].
-Chez les Palikur de Guyane, on emploie des bandes d'écorce d’Annona paludosa pour tresser une ceinture contre les lombalgies (« mal de rein »)[3].
-Chiçmie
-Les alcaloïdes des extraits d’Annona paludosa ont été analysés[14]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits jaunes juteux sont comestibles mais la pulpe très ferme, serait plutôt insipide.
+Son bois léger est souvent utilisé comme manche d'outils.
+Chez les Palikur de Guyane, on emploie des bandes d'écorce d’Annona paludosa pour tresser une ceinture contre les lombalgies (« mal de rein »).
 </t>
         </is>
       </c>
@@ -652,14 +670,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chiçmie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les alcaloïdes des extraits d’Annona paludosa ont été analysés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Annona_paludosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annona_paludosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante[1] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante : 
 « 1. ANNONA (paludoſa) foliis villoſis, ſupra viridibus, ſubtus rufeſcentibus ; fructu luteo, tuberculato. 
-Guanabanus fructu turbinato, minori, luteo. Barr. Fr. Equinox, pag. 53[15]. 
+Guanabanus fructu turbinato, minori, luteo. Barr. Fr. Equinox, pag. 53. 
 fructu levi, punctato, carne tubeſcente. (Tabula 247.) 
 Frutex trunco quadri aut quinque-pedali, in ſummitate ramoſo; ramis rectis &amp; declinatis, undique ſparſis. Folia alterna, ovato-oblonga, acuta, integerrima, tomentoſa, ſupernè viridia, infernè rufeſcentia, brevi petiolata. Flores ſolitarii vel bini, axillares. 
 Florebat Novembri ; fructum ferebat Aprili. 
